--- a/02_Commandes/Commande_P1704_2019.xlsx
+++ b/02_Commandes/Commande_P1704_2019.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Exemple" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -85,6 +85,51 @@
   </si>
   <si>
     <t>https://www.digikey.ch/product-detail/fr/nkk-switches/AT9704-085L/360-2346-ND/2039173?cur=CHF&amp;lang=fr</t>
+  </si>
+  <si>
+    <t>Contact LED rouge/vert</t>
+  </si>
+  <si>
+    <t>679-2256-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/product-detail/fr/mec-switches/4FTH98222/679-2256-ND/2034812</t>
+  </si>
+  <si>
+    <t>Contact LED bleue</t>
+  </si>
+  <si>
+    <t>679-2251-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/product-detail/fr/mec-switches/4FTH901/679-2251-ND/2034807?cur=CHF&amp;lang=fr</t>
+  </si>
+  <si>
+    <t>Contact LED jaune</t>
+  </si>
+  <si>
+    <t>679-2253-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/product-detail/fr/mec-switches/4FTH942/679-2253-ND/2034809</t>
+  </si>
+  <si>
+    <t>Capuchon triangulaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  679-2129-ND </t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/product-detail/fr/mec-switches/1V16/679-2129-ND/2034685</t>
+  </si>
+  <si>
+    <t>Capuchon cercle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">679-2125-ND </t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/product-detail/fr/mec-switches/1U16/679-2125-ND/2034681</t>
   </si>
 </sst>
 </file>
@@ -135,7 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -150,6 +195,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -204,8 +250,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:I5" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:I9" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I9"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Date" dataDxfId="8"/>
     <tableColumn id="2" name="Quantité" dataDxfId="7"/>
@@ -511,7 +557,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,15 +684,150 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="K5" s="5"/>
+      <c r="A5" s="4">
+        <v>43545</v>
+      </c>
+      <c r="B5" s="1">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5.62</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>43545</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7.76</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>43545</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4.59</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>43545</v>
+      </c>
+      <c r="B8" s="1">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>43545</v>
+      </c>
+      <c r="B9" s="1">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -668,11 +849,16 @@
     <hyperlink ref="K2" r:id="rId1"/>
     <hyperlink ref="K3" r:id="rId2"/>
     <hyperlink ref="K4" r:id="rId3"/>
+    <hyperlink ref="K7" r:id="rId4"/>
+    <hyperlink ref="K6" r:id="rId5"/>
+    <hyperlink ref="K8" r:id="rId6"/>
+    <hyperlink ref="K9" r:id="rId7"/>
+    <hyperlink ref="K5" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/02_Commandes/Commande_P1704_2019.xlsx
+++ b/02_Commandes/Commande_P1704_2019.xlsx
@@ -557,7 +557,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +601,7 @@
         <v>43529</v>
       </c>
       <c r="B2" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>

--- a/02_Commandes/Commande_P1704_2019.xlsx
+++ b/02_Commandes/Commande_P1704_2019.xlsx
@@ -557,7 +557,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +630,7 @@
         <v>43538</v>
       </c>
       <c r="B3" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>14</v>
@@ -659,7 +659,7 @@
         <v>43542</v>
       </c>
       <c r="B4" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>19</v>

--- a/02_Commandes/Commande_P1704_2019.xlsx
+++ b/02_Commandes/Commande_P1704_2019.xlsx
@@ -557,7 +557,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +601,7 @@
         <v>43529</v>
       </c>
       <c r="B2" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>

--- a/02_Commandes/Commande_P1704_2019.xlsx
+++ b/02_Commandes/Commande_P1704_2019.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -130,13 +130,73 @@
   </si>
   <si>
     <t>https://www.digikey.ch/product-detail/fr/mec-switches/1U16/679-2125-ND/2034681</t>
+  </si>
+  <si>
+    <t>Interrupteur à glissière</t>
+  </si>
+  <si>
+    <t>135-31-126</t>
+  </si>
+  <si>
+    <t>Distrelec</t>
+  </si>
+  <si>
+    <t>https://www.distrelec.ch/fr/interrupteur-glissiere-on-on-2p-taiway-500-sdp1-s1-2m1qe/p/13531126?pos=6&amp;origPos=45&amp;origPageSize=10&amp;p=cat-L2D_379528~cat-DNAV_0401~cat-DNAV_PL_050113&amp;q=*&amp;prodprice=4.0926&amp;isProductFamily=false&amp;campaign=&amp;track=true</t>
+  </si>
+  <si>
+    <t>LIPOWER - BOOST CONVERTER</t>
+  </si>
+  <si>
+    <t>1568-1155-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/product-detail/fr/sparkfun-electronics/PRT-10255/1568-1155-ND/5673741</t>
+  </si>
+  <si>
+    <t>Battery Management System</t>
+  </si>
+  <si>
+    <t>AKT-200507</t>
+  </si>
+  <si>
+    <t>Akkushop</t>
+  </si>
+  <si>
+    <t>https://www.akkushop-schweiz.ch/ch/1s-pcb-keeppower-pcm-kp-1660-s1-schutzelektronik/</t>
+  </si>
+  <si>
+    <t>Sony US18650NC1 Li-ion</t>
+  </si>
+  <si>
+    <t>AKT-100656</t>
+  </si>
+  <si>
+    <t>https://www.akkushop-schweiz.ch/ch/sony-us18650nc1-li-ion-2900mah-37-volt-li-ion-akku-ungeschuetzt/?c=0</t>
+  </si>
+  <si>
+    <t>microUSB to 5 P</t>
+  </si>
+  <si>
+    <t>708-2061-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/product-detail/fr/bulgin/PXP4043-B/708-2061-ND/5813258?cur=CHF&amp;lang=fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convertisseur logique </t>
+  </si>
+  <si>
+    <t>1568-1006-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/product-detail/fr/sparkfun-electronics/BOB-11955/1568-1006-ND/5140771</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +214,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -196,6 +264,53 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -557,7 +672,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,13 +943,192 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>43629</v>
+      </c>
+      <c r="B10" s="8">
+        <v>4</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="9">
+        <v>4.09</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>43622</v>
+      </c>
+      <c r="B11" s="14">
+        <v>6</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="19">
+        <v>16.11</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>43622</v>
+      </c>
+      <c r="B12" s="14">
+        <v>6</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="14">
+        <v>9.02</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>43622</v>
+      </c>
+      <c r="B13" s="14">
+        <v>18</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="14">
+        <v>11.29</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>43622</v>
+      </c>
+      <c r="B14" s="14">
+        <v>8</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="13">
+        <v>15.87</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="13"/>
+      <c r="K14" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24">
+        <v>43612</v>
+      </c>
+      <c r="B15" s="22">
+        <v>5</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="27">
+        <v>7.02</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="21"/>
+      <c r="K15" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -854,11 +1148,12 @@
     <hyperlink ref="K8" r:id="rId6"/>
     <hyperlink ref="K9" r:id="rId7"/>
     <hyperlink ref="K5" r:id="rId8"/>
+    <hyperlink ref="K13" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
--- a/02_Commandes/Commande_P1704_2019.xlsx
+++ b/02_Commandes/Commande_P1704_2019.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\projet_manette\manette\02_Commandes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pubte\Documents\GitHub\Manette\02_Commandes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF13989-FA95-41D6-A763-74E68CB768DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="12585"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exemple" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -48,9 +57,6 @@
     <t>No projet</t>
   </si>
   <si>
-    <t>NodeMCU</t>
-  </si>
-  <si>
     <t>1656367-62</t>
   </si>
   <si>
@@ -190,12 +196,24 @@
   </si>
   <si>
     <t>https://www.digikey.ch/product-detail/fr/sparkfun-electronics/BOB-11955/1568-1006-ND/5140771</t>
+  </si>
+  <si>
+    <t>Potentiomètres linéaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	PTA2043-2015DPB103-ND </t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/product-detail/fr/bourns-inc/PTA2043-2015DPB103/PTA2043-2015DPB103-ND/3781179</t>
+  </si>
+  <si>
+    <t>NodeMCU ESP32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -365,18 +383,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:I9" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:I10" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I10" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Date" dataDxfId="8"/>
-    <tableColumn id="2" name="Quantité" dataDxfId="7"/>
-    <tableColumn id="3" name="Description" dataDxfId="6"/>
-    <tableColumn id="4" name="No d'article" dataDxfId="5"/>
-    <tableColumn id="5" name="Prix unitaire" dataDxfId="4"/>
-    <tableColumn id="6" name="Fournisseur" dataDxfId="3"/>
-    <tableColumn id="7" name="Acronyme" dataDxfId="2"/>
-    <tableColumn id="8" name="Rubrique" dataDxfId="1"/>
-    <tableColumn id="9" name="No projet" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Quantité" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="No d'article" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Prix unitaire" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Fournisseur" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Acronyme" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Rubrique" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="No projet" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -458,6 +476,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -493,6 +528,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -668,18 +720,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="20.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="3" customWidth="1"/>
-    <col min="4" max="9" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" style="1" customWidth="1"/>
+    <col min="5" max="9" width="20.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -719,25 +772,25 @@
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="2">
         <v>12.95</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -748,25 +801,25 @@
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E3" s="2">
         <v>39.950000000000003</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -777,25 +830,25 @@
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E4" s="2">
         <v>5.99</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -806,25 +859,25 @@
         <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5" s="1">
         <v>5.62</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -835,25 +888,25 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E6" s="1">
         <v>7.76</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -864,25 +917,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
       </c>
       <c r="E7" s="1">
         <v>4.59</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -893,116 +946,115 @@
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E8" s="1">
         <v>0.59</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="21" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>43545</v>
+      </c>
+      <c r="B9" s="22">
+        <v>4</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="22">
+        <v>1.3</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>43545</v>
+      </c>
+      <c r="B10" s="1">
         <v>12</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>43545</v>
-      </c>
-      <c r="B9" s="1">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E10" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="5" t="s">
+    </row>
+    <row r="11" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>43629</v>
+      </c>
+      <c r="B11" s="8">
+        <v>4</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>43629</v>
-      </c>
-      <c r="B10" s="8">
-        <v>4</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E11" s="9">
+        <v>4.09</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="9">
-        <v>4.09</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="G11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
-        <v>43622</v>
-      </c>
-      <c r="B11" s="14">
-        <v>6</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="19">
-        <v>16.11</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="17" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1012,28 +1064,28 @@
       <c r="B12" s="14">
         <v>6</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="14">
-        <v>9.02</v>
+      <c r="C12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="19">
+        <v>16.11</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1041,30 +1093,30 @@
         <v>43622</v>
       </c>
       <c r="B13" s="14">
-        <v>18</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>48</v>
+        <v>6</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E13" s="14">
-        <v>11.29</v>
+        <v>9.02</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1072,64 +1124,94 @@
         <v>43622</v>
       </c>
       <c r="B14" s="14">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="13">
-        <v>15.87</v>
+        <v>47</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="14">
+        <v>11.29</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>43622</v>
+      </c>
+      <c r="B15" s="14">
+        <v>8</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="13">
+        <v>15.87</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24">
+        <v>43612</v>
+      </c>
+      <c r="B16" s="22">
+        <v>5</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
-        <v>43612</v>
-      </c>
-      <c r="B15" s="22">
-        <v>5</v>
-      </c>
-      <c r="C15" s="23" t="s">
+      <c r="D16" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="E16" s="27">
+        <v>7.02</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="27">
-        <v>7.02</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
     <row r="18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1138,22 +1220,24 @@
     <row r="23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="K7" r:id="rId4"/>
-    <hyperlink ref="K6" r:id="rId5"/>
-    <hyperlink ref="K8" r:id="rId6"/>
-    <hyperlink ref="K9" r:id="rId7"/>
-    <hyperlink ref="K5" r:id="rId8"/>
-    <hyperlink ref="K13" r:id="rId9"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K16" r:id="rId10" xr:uid="{AE75831E-3FB9-40F8-870E-580D5684A186}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId11"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>